--- a/Pull Sheets/XTOWN MASTER PULL-SHEET_051723.xlsx
+++ b/Pull Sheets/XTOWN MASTER PULL-SHEET_051723.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent.sharepoint.com/sites/a026/Shared Documents/General/Personal Folders/Daren/S48012 CBTC XTown/CABLE PLAN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/Pull Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4901" documentId="8_{AA9F621D-F65D-4136-9198-BB05EFC1C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C13FC9B1-A83B-49A1-B2B5-613BF56033F1}"/>
+  <xr:revisionPtr revIDLastSave="4905" documentId="8_{AA9F621D-F65D-4136-9198-BB05EFC1C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E803FA-71CF-447F-8BE8-7C809982E2D3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9E80E63-1C55-4419-AB5D-FDAD554F681E}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="195" windowWidth="13785" windowHeight="15075" xr2:uid="{E9E80E63-1C55-4419-AB5D-FDAD554F681E}"/>
   </bookViews>
   <sheets>
     <sheet name="XT-CABLES" sheetId="1" r:id="rId1"/>
@@ -3187,10 +3187,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3492,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB10AB-E33D-4A3F-A983-F092EBE68F60}">
   <dimension ref="A1:AG937"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E675" sqref="E675"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63049,6 +63045,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="66e70bf2-fa14-4905-bf58-a1f686c93e0f" xsi:nil="true"/>
+    <TaxCatchAll xmlns="675232af-f2ed-426d-998c-17155231ff09" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="66e70bf2-fa14-4905-bf58-a1f686c93e0f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100809600BFA0EEFA4DA7EA1AC3940FA64D" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="519519f37530e706f7fff2b28c5f7cc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66e70bf2-fa14-4905-bf58-a1f686c93e0f" xmlns:ns3="675232af-f2ed-426d-998c-17155231ff09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97e9b5bf032371b7daafb24cec16a2f0" ns2:_="" ns3:_="">
     <xsd:import namespace="66e70bf2-fa14-4905-bf58-a1f686c93e0f"/>
@@ -63297,28 +63314,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B0732C-E7D7-42F7-A2FB-2C5EB41CFB33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="66e70bf2-fa14-4905-bf58-a1f686c93e0f"/>
+    <ds:schemaRef ds:uri="675232af-f2ed-426d-998c-17155231ff09"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="66e70bf2-fa14-4905-bf58-a1f686c93e0f" xsi:nil="true"/>
-    <TaxCatchAll xmlns="675232af-f2ed-426d-998c-17155231ff09" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="66e70bf2-fa14-4905-bf58-a1f686c93e0f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{365FF0F6-87BC-4A4C-9CDC-5A6120C51FA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10FD8F1-BB07-4E81-A81C-8B916BB55382}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -63335,23 +63350,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{365FF0F6-87BC-4A4C-9CDC-5A6120C51FA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B0732C-E7D7-42F7-A2FB-2C5EB41CFB33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="66e70bf2-fa14-4905-bf58-a1f686c93e0f"/>
-    <ds:schemaRef ds:uri="675232af-f2ed-426d-998c-17155231ff09"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Pull Sheets/XTOWN MASTER PULL-SHEET_051723.xlsx
+++ b/Pull Sheets/XTOWN MASTER PULL-SHEET_051723.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4905" documentId="8_{AA9F621D-F65D-4136-9198-BB05EFC1C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E803FA-71CF-447F-8BE8-7C809982E2D3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="195" windowWidth="13785" windowHeight="15075" xr2:uid="{E9E80E63-1C55-4419-AB5D-FDAD554F681E}"/>
+    <workbookView xWindow="3480" yWindow="1065" windowWidth="21450" windowHeight="14235" xr2:uid="{E9E80E63-1C55-4419-AB5D-FDAD554F681E}"/>
   </bookViews>
   <sheets>
     <sheet name="XT-CABLES" sheetId="1" r:id="rId1"/>
@@ -3187,6 +3187,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63045,27 +63049,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="66e70bf2-fa14-4905-bf58-a1f686c93e0f" xsi:nil="true"/>
-    <TaxCatchAll xmlns="675232af-f2ed-426d-998c-17155231ff09" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="66e70bf2-fa14-4905-bf58-a1f686c93e0f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100809600BFA0EEFA4DA7EA1AC3940FA64D" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="519519f37530e706f7fff2b28c5f7cc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66e70bf2-fa14-4905-bf58-a1f686c93e0f" xmlns:ns3="675232af-f2ed-426d-998c-17155231ff09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97e9b5bf032371b7daafb24cec16a2f0" ns2:_="" ns3:_="">
     <xsd:import namespace="66e70bf2-fa14-4905-bf58-a1f686c93e0f"/>
@@ -63314,26 +63297,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B0732C-E7D7-42F7-A2FB-2C5EB41CFB33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="66e70bf2-fa14-4905-bf58-a1f686c93e0f"/>
-    <ds:schemaRef ds:uri="675232af-f2ed-426d-998c-17155231ff09"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{365FF0F6-87BC-4A4C-9CDC-5A6120C51FA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="66e70bf2-fa14-4905-bf58-a1f686c93e0f" xsi:nil="true"/>
+    <TaxCatchAll xmlns="675232af-f2ed-426d-998c-17155231ff09" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="66e70bf2-fa14-4905-bf58-a1f686c93e0f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10FD8F1-BB07-4E81-A81C-8B916BB55382}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -63350,4 +63335,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{365FF0F6-87BC-4A4C-9CDC-5A6120C51FA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B0732C-E7D7-42F7-A2FB-2C5EB41CFB33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="66e70bf2-fa14-4905-bf58-a1f686c93e0f"/>
+    <ds:schemaRef ds:uri="675232af-f2ed-426d-998c-17155231ff09"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>